--- a/conteudo/assets/01/plano_de_divulgacao.xlsx
+++ b/conteudo/assets/01/plano_de_divulgacao.xlsx
@@ -3973,8 +3973,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100393332CEE5C5294F9D2C3CF7CCDACBE5" ma:contentTypeVersion="16" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="a73d003f950adda75cc0697e33becf89">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0b2fdeb1-5b37-4d45-8795-a201e04e6bde" xmlns:ns3="ad7f9cce-789d-48b6-8905-cbaebc4984a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8de3ec60a9f9935cd0b8574cbdcad968" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100393332CEE5C5294F9D2C3CF7CCDACBE5" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="edd0d15c136053e307f72986c883fc04">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0b2fdeb1-5b37-4d45-8795-a201e04e6bde" xmlns:ns3="ad7f9cce-789d-48b6-8905-cbaebc4984a9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d01be935b130497a151d2b6821256768" ns2:_="" ns3:_="">
     <xsd:import namespace="0b2fdeb1-5b37-4d45-8795-a201e04e6bde"/>
     <xsd:import namespace="ad7f9cce-789d-48b6-8905-cbaebc4984a9"/>
     <xsd:element name="properties">
@@ -4070,7 +4070,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="ad7f9cce-789d-48b6-8905-cbaebc4984a9" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Compartilhado com" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -4089,7 +4089,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Detalhes de Compartilhado Com" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -4117,8 +4117,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de Conteúdo"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -4225,7 +4225,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{368AC89F-5523-47F2-8C79-3403EB96205B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ECC82285-A721-4FAB-9146-454EAF8CF8AD}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
